--- a/src/test/resources/TestData/DryBar/DryBarTaxAddress.xlsx
+++ b/src/test/resources/TestData/DryBar/DryBarTaxAddress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varap\git\Lotuswave\Lotus\HoT-digital\src\test\resources\TestData\DryBar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C50F5C9-95F7-49B7-94AD-ABF464E36D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12131C7E-681F-4BA2-BA56-E493F99A2882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>S.no</t>
   </si>
@@ -45,34 +45,58 @@
     <t>TaxRate</t>
   </si>
   <si>
-    <t xml:space="preserve">Illinois </t>
-  </si>
-  <si>
     <t>3224 Sandy Ln</t>
   </si>
   <si>
     <t>Glenview</t>
   </si>
   <si>
-    <t>507 S 2nd</t>
-  </si>
-  <si>
-    <t>Benld</t>
-  </si>
-  <si>
-    <t>7.25</t>
+    <t>77 Winding Way Lane</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>40 South Big Rock Cove Avenue</t>
+  </si>
+  <si>
+    <t>Aurora</t>
+  </si>
+  <si>
+    <t>144 Harvey Court</t>
+  </si>
+  <si>
+    <t>Evans</t>
+  </si>
+  <si>
+    <t>7041 S. Queen RoadSuite 94</t>
+  </si>
+  <si>
+    <t>Atwood</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>2.9</t>
   </si>
   <si>
     <t>9.75</t>
   </si>
   <si>
-    <t>9 william st</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chicago </t>
-  </si>
-  <si>
-    <t>10.25</t>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>6.5</t>
   </si>
   <si>
     <t>Florida</t>
@@ -81,85 +105,10 @@
     <t>7</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7.5</t>
-  </si>
-  <si>
-    <t>2124 Golden Oak</t>
-  </si>
-  <si>
-    <t>Valrico</t>
-  </si>
-  <si>
-    <t>5051 N Cimarron Dr</t>
-  </si>
-  <si>
-    <t>Beverly Hills</t>
-  </si>
-  <si>
-    <t>10486 Millbrook Dr</t>
-  </si>
-  <si>
-    <t>Penscola</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>77 Winding Way Lane</t>
-  </si>
-  <si>
-    <t>Los Angeles</t>
-  </si>
-  <si>
-    <t>8481 Newbridge Road</t>
-  </si>
-  <si>
-    <t>Santa Monica</t>
-  </si>
-  <si>
-    <t>685 Blessing Drive</t>
-  </si>
-  <si>
-    <t>Cypress</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>40 South Big Rock Cove Avenue</t>
-  </si>
-  <si>
-    <t>Aurora</t>
-  </si>
-  <si>
-    <t>144 Harvey Court</t>
-  </si>
-  <si>
-    <t>Evans</t>
-  </si>
-  <si>
-    <t>7041 S. Queen RoadSuite 94</t>
-  </si>
-  <si>
-    <t>Atwood</t>
-  </si>
-  <si>
-    <t>9.5</t>
-  </si>
-  <si>
-    <t>7.75</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>3.9</t>
-  </si>
-  <si>
-    <t>2.9</t>
+    <t>1812 Tarah Trace</t>
+  </si>
+  <si>
+    <t>Brandon</t>
   </si>
 </sst>
 </file>
@@ -216,7 +165,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -252,35 +201,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -294,25 +219,16 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -320,7 +236,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,223 +554,121 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="E2" s="4">
         <v>60026</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4">
-        <v>62009</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>11</v>
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="6">
+        <v>33508</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="4">
-        <v>60685</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>15</v>
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="6">
+        <v>66761</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
-        <v>2</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4">
-        <v>33508</v>
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6">
+        <v>80041</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="4">
-        <v>34465</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="6">
+        <v>80620</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="4">
-        <v>32534</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="6">
+        <v>80722</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
-        <v>3</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="15">
-        <v>90060</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="15">
-        <v>90410</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="15">
-        <v>90630</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
-        <v>4</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="15">
-        <v>80041</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="15">
-        <v>80620</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="15">
-        <v>80722</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A2:A4"/>
+  <mergeCells count="2">
+    <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
